--- a/configs/itdk.201803.all.xlsx
+++ b/configs/itdk.201803.all.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amarder/PycharmProjects/bdrmapit-journal/configs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amarder/PycharmProjects/astraceroute/configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA50F064-C311-FF42-B4CB-87EC280C035E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A1E41-26B4-B746-BC96-DDBEE69B2A29}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="37480" windowHeight="21140" activeTab="5" xr2:uid="{1DA8A605-3C46-9A4E-BE72-564E84E905C4}"/>
+    <workbookView xWindow="38400" yWindow="-6740" windowWidth="40960" windowHeight="22580" activeTab="2" xr2:uid="{1DA8A605-3C46-9A4E-BE72-564E84E905C4}"/>
   </bookViews>
   <sheets>
     <sheet name="201803.all" sheetId="1" r:id="rId1"/>
-    <sheet name="201603.all" sheetId="3" r:id="rId2"/>
-    <sheet name="201708.all" sheetId="4" r:id="rId3"/>
-    <sheet name="bdrmap" sheetId="6" r:id="rId4"/>
-    <sheet name="vpgroups" sheetId="9" r:id="rId5"/>
-    <sheet name="all" sheetId="10" r:id="rId6"/>
-    <sheet name="bdrmap (2)" sheetId="11" r:id="rId7"/>
-    <sheet name="vpgroups (2)" sheetId="12" r:id="rId8"/>
+    <sheet name="201802.kapar" sheetId="13" r:id="rId2"/>
+    <sheet name="201802.noalias" sheetId="15" r:id="rId3"/>
+    <sheet name="201603.all" sheetId="3" r:id="rId4"/>
+    <sheet name="201603.kapar" sheetId="14" r:id="rId5"/>
+    <sheet name="201603.noalias" sheetId="16" r:id="rId6"/>
+    <sheet name="201708.all" sheetId="4" r:id="rId7"/>
+    <sheet name="bdrmap" sheetId="6" r:id="rId8"/>
+    <sheet name="vpgroups" sheetId="9" r:id="rId9"/>
+    <sheet name="all" sheetId="10" r:id="rId10"/>
+    <sheet name="bdrmap (2)" sheetId="11" r:id="rId11"/>
+    <sheet name="vpgroups (2)" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="194">
   <si>
     <t>db</t>
   </si>
@@ -572,6 +576,48 @@
   </si>
   <si>
     <t>itdk/201803/groups/all/output/0.db</t>
+  </si>
+  <si>
+    <t>bdrmapcomp/2016/bdrmapit/bed3-us.noalias.db</t>
+  </si>
+  <si>
+    <t>bdrmapcomp/2016/bdrmapit/cld2-us.noalias.db</t>
+  </si>
+  <si>
+    <t>bdrmapcomp/2016/bdrmapit/reannz-us.noalias.db</t>
+  </si>
+  <si>
+    <t>bdrmapcomp/2016/bdrmapit/san4-us.noalias.db</t>
+  </si>
+  <si>
+    <t>bdrmapcomp/2018/bdrmapit/san7-us.noalias.db</t>
+  </si>
+  <si>
+    <t>bdrmapcomp/2018/bdrmapit/atl3-us.noalias.db</t>
+  </si>
+  <si>
+    <t>caida/itdk/201803/kapar-midar-iff.nodes.bz2</t>
+  </si>
+  <si>
+    <t>itdk/201802/revisions/kapar.db</t>
+  </si>
+  <si>
+    <t>itdk/201802/dbs/combined.db</t>
+  </si>
+  <si>
+    <t>itdk/201603/revisions/kapar.db</t>
+  </si>
+  <si>
+    <t>caida/itdk/2016/03/kapar-midar-iff.nodes.bz2</t>
+  </si>
+  <si>
+    <t>Itdk/201802/revisions/kapar.db</t>
+  </si>
+  <si>
+    <t>itdk/201603/revisions/noalias.db</t>
+  </si>
+  <si>
+    <t>itdk/201802/revisions/noalias.db</t>
   </si>
 </sst>
 </file>
@@ -642,7 +688,93 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0F537A88-BDB9-1843-BE2B-5AF3C4C98DBC}" name="Table13567" displayName="Table13567" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{DEE18723-A4EA-ED45-965A-55D879571879}" name="db"/>
+    <tableColumn id="2" xr3:uid="{908FE718-812B-6F4A-9A0B-763037508BE6}" name="nodes"/>
+    <tableColumn id="3" xr3:uid="{9A33900E-4A9B-1A4F-AB6B-6AA902751BD3}" name="ip2as"/>
+    <tableColumn id="4" xr3:uid="{8EC24229-2419-7747-9688-F1D51080EA08}" name="as2org"/>
+    <tableColumn id="5" xr3:uid="{832E8422-F175-CB44-8160-D14A326D3121}" name="rels"/>
+    <tableColumn id="6" xr3:uid="{BB0B5295-E5AB-C143-9E4D-AEF047F9A0DA}" name="cone"/>
+    <tableColumn id="7" xr3:uid="{55BEDB53-C049-0246-8503-6C0D7BAE6C2F}" name="output"/>
+    <tableColumn id="8" xr3:uid="{EC6911E0-1B7C-4149-9183-DBD2A2D0AD78}" name="iterations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{011A2D61-10E6-364F-95AF-70277E5B5377}" name="Table1358" displayName="Table1358" ref="A1:H8" totalsRowShown="0">
+  <autoFilter ref="A1:H8" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{BBEF97E1-0C57-6D4E-AF3F-EAD441001EC5}" name="db"/>
+    <tableColumn id="2" xr3:uid="{4F61B82E-C043-0D41-AD7D-5F986F2A3877}" name="nodes"/>
+    <tableColumn id="3" xr3:uid="{1F5DC5CD-B4CB-1847-83D3-D71AB885E3EC}" name="ip2as"/>
+    <tableColumn id="4" xr3:uid="{C693B504-02B6-F74C-9ABB-0DB26C42DA2A}" name="as2org"/>
+    <tableColumn id="5" xr3:uid="{560C644F-F40D-8A4D-859C-8A74E5DC8897}" name="rels"/>
+    <tableColumn id="6" xr3:uid="{EC75E0D2-DCBA-9F49-B1CB-59A1A557B8D1}" name="cone"/>
+    <tableColumn id="7" xr3:uid="{988E97FB-FD6D-E344-94B3-F5F06CC50796}" name="output"/>
+    <tableColumn id="8" xr3:uid="{763B63A3-AA48-9742-819A-90F92DB30328}" name="iterations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BACD9B8A-77BF-1642-902A-3DD36CB15CF2}" name="Table13569" displayName="Table13569" ref="A1:H41" totalsRowShown="0">
+  <autoFilter ref="A1:H41" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E6C9C152-9EEB-4D4C-B944-AA2CBDF33C1C}" name="db"/>
+    <tableColumn id="2" xr3:uid="{31FE898B-D205-7F41-8F9B-05B926C86588}" name="nodes"/>
+    <tableColumn id="3" xr3:uid="{CC5BDDF1-4E0A-BA4D-9C2B-5B943459FD8A}" name="ip2as"/>
+    <tableColumn id="4" xr3:uid="{856E3660-17FD-DE47-AE5C-74245DB8143C}" name="as2org"/>
+    <tableColumn id="5" xr3:uid="{7186DC6B-A881-9946-8873-B201038971F1}" name="rels"/>
+    <tableColumn id="6" xr3:uid="{5EFCAA45-AC0E-0D47-A36A-F26C2FA61D27}" name="cone"/>
+    <tableColumn id="7" xr3:uid="{08CA8693-5783-574F-A5DA-C5D617E67083}" name="output"/>
+    <tableColumn id="8" xr3:uid="{7B1B078A-68D4-B043-B89C-37D5A3A59E9E}" name="iterations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8AEFACF3-2E4C-314B-B763-8FD4C7DBE208}" name="Table110" displayName="Table110" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{8253EA37-E703-C147-8B7A-382609454522}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{263A5CB6-4FAE-5B4E-BFFB-799DC6961DDD}" name="db"/>
+    <tableColumn id="2" xr3:uid="{F2F5CFD6-BC05-6249-8DE4-AB67FD770148}" name="nodes"/>
+    <tableColumn id="3" xr3:uid="{0C23A69B-55C7-2142-8AEC-AC1415C673CA}" name="ip2as"/>
+    <tableColumn id="4" xr3:uid="{02E08506-1148-CE47-8F97-949A63DA72F8}" name="as2org"/>
+    <tableColumn id="5" xr3:uid="{F87F86EF-90E8-7E41-98A6-336ADF5A93E7}" name="rels"/>
+    <tableColumn id="6" xr3:uid="{2690F5D7-4DB4-624F-B53C-CA53A7646AEE}" name="cone"/>
+    <tableColumn id="7" xr3:uid="{598E53EE-9FD6-DC47-BAB0-CA43D3E565FE}" name="output"/>
+    <tableColumn id="8" xr3:uid="{00AFC9C1-56BD-424C-A407-25B2BAE00189}" name="Itdk/201802/revisions/kapar.db"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2867619C-0FE2-FF40-B185-FBF52D79A2BA}" name="Table11012" displayName="Table11012" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{7F4E15A0-E059-E849-8C3E-47710F143C92}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DD80750C-CBE5-0C40-8288-C3867C8880E9}" name="db"/>
+    <tableColumn id="2" xr3:uid="{CB8F85EE-39F4-BF4E-A917-29F10D1CEAA2}" name="nodes"/>
+    <tableColumn id="3" xr3:uid="{6FC5D2A5-C5B1-2448-9209-A1D8A5922778}" name="ip2as"/>
+    <tableColumn id="4" xr3:uid="{3E128206-9AF3-F543-9DB3-0731D88F16D8}" name="as2org"/>
+    <tableColumn id="5" xr3:uid="{E89358CA-A2DA-E64C-BBC1-8DE0E420327C}" name="rels"/>
+    <tableColumn id="6" xr3:uid="{146C02EA-BD20-344D-AC05-1F378AF61FDE}" name="cone"/>
+    <tableColumn id="7" xr3:uid="{693561A6-C5B0-DC40-B66D-944B24A3F074}" name="output"/>
+    <tableColumn id="8" xr3:uid="{6B742F05-51DB-2643-8087-64E84B458AE9}" name="Itdk/201802/revisions/kapar.db"/>
+    <tableColumn id="9" xr3:uid="{A8A06D40-6F33-314D-BB35-513EC996286A}" name="iterations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12131D48-FBCE-CF41-80C3-7E158E5EA04A}" name="Table13" displayName="Table13" ref="A1:H2" totalsRowShown="0">
   <autoFilter ref="A1:H2" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
   <tableColumns count="8">
@@ -659,7 +791,41 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D459AD-EF9B-F145-9BED-49B570C9CDC3}" name="Table1311" displayName="Table1311" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{BCA7B0E1-7FDA-EA4F-B05A-9D70F625E009}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A211B731-A248-2A4C-87CF-14B50D36D036}" name="db"/>
+    <tableColumn id="2" xr3:uid="{335C4B14-9A55-DC44-883F-CF3B998779A5}" name="nodes"/>
+    <tableColumn id="3" xr3:uid="{88DF74C0-633C-594C-B493-B63CC61B8D5B}" name="ip2as"/>
+    <tableColumn id="4" xr3:uid="{723584A4-2CDA-B444-8DF6-3257086B2CD4}" name="as2org"/>
+    <tableColumn id="5" xr3:uid="{D6D8773F-8C22-9340-BD86-EBB8295E91C4}" name="rels"/>
+    <tableColumn id="6" xr3:uid="{06956D40-158F-0A49-B569-563FAA6611C5}" name="cone"/>
+    <tableColumn id="7" xr3:uid="{DD68091B-5A02-2749-9BD1-BE3E8B8EF39C}" name="output"/>
+    <tableColumn id="8" xr3:uid="{1B7309AA-2C88-BB4A-B8BB-F80BA587E1BB}" name="iterations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C22DF0A8-DDCE-8344-9F17-041C6D461F30}" name="Table131113" displayName="Table131113" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{D4DD65BF-3CE5-F343-AE68-636FFC2BCB32}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CA28C62E-829D-CC40-B74E-109A86C02519}" name="db"/>
+    <tableColumn id="2" xr3:uid="{AF0BB553-7D44-8944-8903-BCA572441F2D}" name="nodes"/>
+    <tableColumn id="3" xr3:uid="{432864EB-485E-E042-8823-4227ADAB936C}" name="ip2as"/>
+    <tableColumn id="4" xr3:uid="{C873DB93-AF05-2A4B-B302-76C18DC55C15}" name="as2org"/>
+    <tableColumn id="5" xr3:uid="{90FE67BC-D0E7-9849-8C15-A179E070287A}" name="rels"/>
+    <tableColumn id="6" xr3:uid="{7DA6385C-DA1B-D943-9667-3B00286E7145}" name="cone"/>
+    <tableColumn id="7" xr3:uid="{1FC3804C-7A5D-674D-9CBB-27D9657252E8}" name="output"/>
+    <tableColumn id="8" xr3:uid="{2045E8E1-0B9F-1541-8264-CDC14A459BEB}" name="iterations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F800E0E2-D4FC-7F47-9EB1-65C38E656575}" name="Table134" displayName="Table134" ref="A1:H2" totalsRowShown="0">
   <autoFilter ref="A1:H2" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
   <tableColumns count="8">
@@ -676,9 +842,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF1B87B3-C8E5-D34F-9B24-E954EDA0BCEE}" name="Table135" displayName="Table135" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF1B87B3-C8E5-D34F-9B24-E954EDA0BCEE}" name="Table135" displayName="Table135" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B791DCC8-F26F-AE46-AE9D-31DED0373C7B}" name="db"/>
     <tableColumn id="2" xr3:uid="{B85EC6EB-474A-504E-8F08-34858C1ECBB2}" name="nodes"/>
@@ -693,7 +859,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D2C21CCE-1E2F-9B47-B8A2-1FDCB006281C}" name="Table1356" displayName="Table1356" ref="A1:H41" totalsRowShown="0">
   <autoFilter ref="A1:H41" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
   <tableColumns count="8">
@@ -705,57 +871,6 @@
     <tableColumn id="6" xr3:uid="{47DF3819-D8A4-504B-8D95-18151ACB2A86}" name="cone"/>
     <tableColumn id="7" xr3:uid="{DE9DC4BC-8BE7-334A-B5AF-15D7F5BCD6F8}" name="output"/>
     <tableColumn id="8" xr3:uid="{FE876C1E-D3F9-9D4C-8959-2401CC73B93B}" name="iterations"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0F537A88-BDB9-1843-BE2B-5AF3C4C98DBC}" name="Table13567" displayName="Table13567" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DEE18723-A4EA-ED45-965A-55D879571879}" name="db"/>
-    <tableColumn id="2" xr3:uid="{908FE718-812B-6F4A-9A0B-763037508BE6}" name="nodes"/>
-    <tableColumn id="3" xr3:uid="{9A33900E-4A9B-1A4F-AB6B-6AA902751BD3}" name="ip2as"/>
-    <tableColumn id="4" xr3:uid="{8EC24229-2419-7747-9688-F1D51080EA08}" name="as2org"/>
-    <tableColumn id="5" xr3:uid="{832E8422-F175-CB44-8160-D14A326D3121}" name="rels"/>
-    <tableColumn id="6" xr3:uid="{BB0B5295-E5AB-C143-9E4D-AEF047F9A0DA}" name="cone"/>
-    <tableColumn id="7" xr3:uid="{55BEDB53-C049-0246-8503-6C0D7BAE6C2F}" name="output"/>
-    <tableColumn id="8" xr3:uid="{EC6911E0-1B7C-4149-9183-DBD2A2D0AD78}" name="iterations"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{011A2D61-10E6-364F-95AF-70277E5B5377}" name="Table1358" displayName="Table1358" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BBEF97E1-0C57-6D4E-AF3F-EAD441001EC5}" name="db"/>
-    <tableColumn id="2" xr3:uid="{4F61B82E-C043-0D41-AD7D-5F986F2A3877}" name="nodes"/>
-    <tableColumn id="3" xr3:uid="{1F5DC5CD-B4CB-1847-83D3-D71AB885E3EC}" name="ip2as"/>
-    <tableColumn id="4" xr3:uid="{C693B504-02B6-F74C-9ABB-0DB26C42DA2A}" name="as2org"/>
-    <tableColumn id="5" xr3:uid="{560C644F-F40D-8A4D-859C-8A74E5DC8897}" name="rels"/>
-    <tableColumn id="6" xr3:uid="{EC75E0D2-DCBA-9F49-B1CB-59A1A557B8D1}" name="cone"/>
-    <tableColumn id="7" xr3:uid="{988E97FB-FD6D-E344-94B3-F5F06CC50796}" name="output"/>
-    <tableColumn id="8" xr3:uid="{763B63A3-AA48-9742-819A-90F92DB30328}" name="iterations"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BACD9B8A-77BF-1642-902A-3DD36CB15CF2}" name="Table13569" displayName="Table13569" ref="A1:H41" totalsRowShown="0">
-  <autoFilter ref="A1:H41" xr:uid="{B6D4FD79-6060-3047-B54F-EAFB641760A3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E6C9C152-9EEB-4D4C-B944-AA2CBDF33C1C}" name="db"/>
-    <tableColumn id="2" xr3:uid="{31FE898B-D205-7F41-8F9B-05B926C86588}" name="nodes"/>
-    <tableColumn id="3" xr3:uid="{CC5BDDF1-4E0A-BA4D-9C2B-5B943459FD8A}" name="ip2as"/>
-    <tableColumn id="4" xr3:uid="{856E3660-17FD-DE47-AE5C-74245DB8143C}" name="as2org"/>
-    <tableColumn id="5" xr3:uid="{7186DC6B-A881-9946-8873-B201038971F1}" name="rels"/>
-    <tableColumn id="6" xr3:uid="{5EFCAA45-AC0E-0D47-A36A-F26C2FA61D27}" name="cone"/>
-    <tableColumn id="7" xr3:uid="{08CA8693-5783-574F-A5DA-C5D617E67083}" name="output"/>
-    <tableColumn id="8" xr3:uid="{7B1B078A-68D4-B043-B89C-37D5A3A59E9E}" name="iterations"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1061,7 +1176,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,1476 +1244,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513DBA09-2C65-7A42-9F69-11A7B27A621D}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D492C1-EA62-FF4C-900E-7EE827DA2D1C}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC85224-BBBD-6E4D-BED8-C402F0A64204}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871C3F86-BA24-A942-9598-736099E3C49B}">
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>172</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>173</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>174</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>177</v>
-      </c>
-      <c r="H40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FA6A5C-24DE-1245-8008-2FD55D779579}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2701,7 +1351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6A1605-2488-0043-BE97-130E943718AE}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2937,7 +1587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC352F5-E91A-4144-BF3D-B4B210EF6876}">
   <dimension ref="A1:H41"/>
   <sheetViews>
@@ -4030,4 +2680,1925 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A94E2-B81D-114F-A871-CACAA6AB620E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F79B5DF-B72F-7947-8C58-81D968FAD144}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513DBA09-2C65-7A42-9F69-11A7B27A621D}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCC82EA-B76A-3A4D-847C-EC6B8B16ABF8}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083B9F25-AA1A-0C4D-BAF4-73B3653F4FE6}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D492C1-EA62-FF4C-900E-7EE827DA2D1C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC85224-BBBD-6E4D-BED8-C402F0A64204}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871C3F86-BA24-A942-9598-736099E3C49B}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>